--- a/CXFPerformanceInterceptors/workbook-template.xlsx
+++ b/CXFPerformanceInterceptors/workbook-template.xlsx
@@ -1,27 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="statistics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="payloads" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"sheet1"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Sheet_Title" localSheetId="0">"sheet1"</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">NA()</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Sheet_Title" vbProcedure="false">"sheet1"</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"sheet1"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="0" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+  <si>
+    <t>ResponseTimes</t>
+  </si>
+  <si>
+    <t>FaultTimes</t>
+  </si>
+  <si>
+    <t>RequestPayloadSize</t>
+  </si>
+  <si>
+    <t>ResponsePayloadSize</t>
+  </si>
+  <si>
+    <t>FaultPayloadSize</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Requests-Nos.</t>
+  </si>
+  <si>
+    <t>Responses-Nos.</t>
+  </si>
+  <si>
+    <t>Faults Nos.</t>
+  </si>
   <si>
     <t>Min</t>
   </si>
@@ -41,37 +75,74 @@
     <t>Raw Data</t>
   </si>
   <si>
-    <t>Min</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>OperationName</t>
+  </si>
+  <si>
+    <t>Request Payload</t>
+  </si>
+  <si>
+    <t>Response Payload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <sz val="10"/>
-      <strike val="0"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <sz val="10"/>
-      <strike val="0"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,226 +154,259 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IV2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AJ1" sqref="AJ1:AL1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1:AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="256" style="1" width="9.146221"/>
+    <col collapsed="false" hidden="false" max="256" min="1" style="1" width="9.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
-      <c r="G1" s="2" t="str">
-        <v>ResponseTimes</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="str">
-        <v>FaultTimes</v>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2" t="str">
-        <v>RequestPayloadSize</v>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="str">
-        <v>ResponsePayloadSize</v>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-      <c r="AE1" s="2" t="str">
-        <v>FaultPayloadSize</v>
+      <c r="AE1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="3" t="str">
-        <v>Raw Payloads</v>
-      </c>
+      <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:256">
-      <c r="A2" s="2" t="str">
-        <v>Service</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>Operation</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>Bucket</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>Requests-Nos.</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>Responses-Nos.</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>Faults Nos.</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="5" t="str">
-        <v>MessageId</v>
-      </c>
-      <c r="AK2" s="5" t="str">
-        <v>Request</v>
-      </c>
-      <c r="AL2" s="5" t="str">
-        <v>Response</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells>
+  <mergeCells count="6">
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -310,8 +414,57 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AJ1:AL2 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/CXFPerformanceInterceptors/workbook-template.xlsx
+++ b/CXFPerformanceInterceptors/workbook-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>ResponseTimes</t>
   </si>
@@ -81,10 +81,13 @@
     <t>OperationName</t>
   </si>
   <si>
-    <t>Request Payload</t>
-  </si>
-  <si>
-    <t>Response Payload</t>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Fault</t>
   </si>
 </sst>
 </file>
@@ -99,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,6 +147,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,8 +240,8 @@
   </sheetPr>
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1:AL2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF6" activeCellId="0" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -429,10 +434,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AJ1:AL2 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -457,6 +462,9 @@
       <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
